--- a/Задание1.xlsx
+++ b/Задание1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Анапа</t>
+  </si>
+  <si>
+    <t>IdColorMaterial</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +695,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E10"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,21 +881,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,13 +907,16 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -919,14 +926,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
         <v>44188</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>44278</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -936,14 +946,17 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
         <v>44189</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>44310</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -953,14 +966,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
         <v>44190</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>44311</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -970,14 +986,17 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
         <v>44191</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>44281</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -987,14 +1006,17 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
         <v>44192</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>44313</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1004,14 +1026,17 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
         <v>44314</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>44467</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1021,10 +1046,13 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
         <v>44345</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>44529</v>
       </c>
     </row>
@@ -1141,166 +1169,223 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B19"/>
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>9</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2</v>
       </c>
     </row>

--- a/Задание1.xlsx
+++ b/Задание1.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Color" sheetId="1" r:id="rId1"/>
     <sheet name="Material" sheetId="2" r:id="rId2"/>
     <sheet name="Product" sheetId="3" r:id="rId3"/>
     <sheet name="Order" sheetId="4" r:id="rId4"/>
-    <sheet name="Client" sheetId="5" r:id="rId5"/>
-    <sheet name="ColorMaterial" sheetId="6" r:id="rId6"/>
-    <sheet name="Type" sheetId="7" r:id="rId7"/>
+    <sheet name="LiningMaterials" sheetId="8" r:id="rId5"/>
+    <sheet name="Client" sheetId="5" r:id="rId6"/>
+    <sheet name="ColorMaterial" sheetId="6" r:id="rId7"/>
+    <sheet name="MaterialsForTheProduct" sheetId="9" r:id="rId8"/>
+    <sheet name="Type" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -202,6 +204,21 @@
   </si>
   <si>
     <t>IdColorMaterial</t>
+  </si>
+  <si>
+    <t>Полиэстер</t>
+  </si>
+  <si>
+    <t>Тафетта</t>
+  </si>
+  <si>
+    <t>Атлас</t>
+  </si>
+  <si>
+    <t>LiningMaterials</t>
+  </si>
+  <si>
+    <t>IdLiningMaterial</t>
   </si>
 </sst>
 </file>
@@ -597,12 +614,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +713,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +902,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,6 +1080,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1167,12 +1244,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1471,136 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/Задание1.xlsx
+++ b/Задание1.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
     <sheet name="Address" sheetId="2" r:id="rId2"/>
     <sheet name="Orders" sheetId="3" r:id="rId3"/>
-    <sheet name="Color" sheetId="4" r:id="rId4"/>
-    <sheet name="Material" sheetId="5" r:id="rId5"/>
-    <sheet name="ProductMaterial" sheetId="9" r:id="rId6"/>
-    <sheet name="LiningMaterials" sheetId="6" r:id="rId7"/>
-    <sheet name="Type" sheetId="7" r:id="rId8"/>
-    <sheet name="Product" sheetId="8" r:id="rId9"/>
+    <sheet name="Type" sheetId="7" r:id="rId4"/>
+    <sheet name="Color" sheetId="4" r:id="rId5"/>
+    <sheet name="Product" sheetId="8" r:id="rId6"/>
+    <sheet name="Material" sheetId="5" r:id="rId7"/>
+    <sheet name="ProductMaterial" sheetId="9" r:id="rId8"/>
+    <sheet name="ColorMaterial" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Patronymic</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Смирнов</t>
   </si>
   <si>
@@ -173,12 +170,6 @@
     <t>Шерсть</t>
   </si>
   <si>
-    <t>Трикотаж</t>
-  </si>
-  <si>
-    <t>LiningMaterials</t>
-  </si>
-  <si>
     <t>Полиэстер</t>
   </si>
   <si>
@@ -236,19 +227,10 @@
     <t>Косуха</t>
   </si>
   <si>
-    <t>IdLiningMaterials</t>
-  </si>
-  <si>
     <t xml:space="preserve">Альпака </t>
   </si>
   <si>
-    <t>Дюспо</t>
-  </si>
-  <si>
-    <t>Велюр</t>
-  </si>
-  <si>
-    <t>IdProductMaterial</t>
+    <t>IdAddress</t>
   </si>
 </sst>
 </file>
@@ -597,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,13 +587,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -622,13 +604,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -639,13 +621,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -656,13 +638,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -694,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -722,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -736,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>301</v>
@@ -750,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>57</v>
@@ -767,43 +749,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -811,19 +790,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44188</v>
       </c>
       <c r="E2" s="1">
-        <v>44188</v>
-      </c>
-      <c r="F2" s="1">
         <v>44278</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -831,19 +807,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44189</v>
       </c>
       <c r="E3" s="1">
-        <v>44189</v>
-      </c>
-      <c r="F3" s="1">
         <v>44310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -853,17 +826,14 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>5</v>
+      <c r="D4" s="1">
+        <v>44190</v>
       </c>
       <c r="E4" s="1">
-        <v>44190</v>
-      </c>
-      <c r="F4" s="1">
         <v>44311</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -871,19 +841,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44191</v>
       </c>
       <c r="E5" s="1">
-        <v>44191</v>
-      </c>
-      <c r="F5" s="1">
         <v>44281</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -893,17 +860,14 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" s="1">
+        <v>44192</v>
       </c>
       <c r="E6" s="1">
-        <v>44192</v>
-      </c>
-      <c r="F6" s="1">
         <v>44313</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -911,19 +875,16 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44314</v>
       </c>
       <c r="E7" s="1">
-        <v>44314</v>
-      </c>
-      <c r="F7" s="1">
         <v>44467</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -931,15 +892,12 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44345</v>
       </c>
       <c r="E8" s="1">
-        <v>44345</v>
-      </c>
-      <c r="F8" s="1">
         <v>44529</v>
       </c>
     </row>
@@ -949,6 +907,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -967,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -999,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1007,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1015,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1023,12 +1032,200 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>12170</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6170</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>9800</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>8170</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>6170</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>9800</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>5000</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>7990</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1050,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1074,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1082,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1098,7 +1295,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1122,7 +1319,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1146,18 +1343,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1168,312 +1365,148 @@
     <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1483,189 +1516,160 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E10"/>
+      <selection activeCell="A2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>12170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>6170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>62</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>63</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>8170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>64</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>65</v>
+      <c r="B7">
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>6170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>66</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>9800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>67</v>
+      <c r="B9">
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>68</v>
+      <c r="B10">
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>7990</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
